--- a/Client_CSILMS/src/templates/EmployeeProfiles.xlsx
+++ b/Client_CSILMS/src/templates/EmployeeProfiles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -31,12 +31,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>if the Employee(s) doesn't have credits for any of those Leave Columns.</t>
-  </si>
-  <si>
-    <t>You may contact the Development Team for further assistance of using this template.</t>
-  </si>
-  <si>
     <t>This is the template for uploading the Leave Entitlements. Please be reminded with the following rules of filling in the values on each Column Field.</t>
   </si>
   <si>
@@ -61,12 +55,6 @@
     <t>Failing to follow any of these below rules may result to unsuccessful upload of Entitlement data.</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>NRICPassport</t>
-  </si>
-  <si>
     <t>JobTitle</t>
   </si>
   <si>
@@ -82,18 +70,12 @@
     <t>LineManager</t>
   </si>
   <si>
-    <t>JoinDate</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>Role</t>
   </si>
   <si>
-    <t xml:space="preserve">1.) This template contains eleven (11) required column fields. Column Names or Headers shouldn't be missed or misspelled. </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Following below are the Column Names/Headers. Please verify that all of these are present in the </t>
     </r>
@@ -119,6 +101,81 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">3.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EmployeeName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be Full Name of the Employee.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BusinessEmail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values must be the Chinasoft Email Address.</t>
+    </r>
+  </si>
+  <si>
+    <t>BusinessEmail</t>
+  </si>
+  <si>
+    <t>NRICPassportNo</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+  </si>
+  <si>
+    <t>DateMarried</t>
+  </si>
+  <si>
+    <t>MarriedCount</t>
+  </si>
+  <si>
+    <t>ChildrenCount</t>
+  </si>
+  <si>
+    <t>DepartmentID</t>
+  </si>
+  <si>
+    <t>DottedLineManager</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">2.) </t>
     </r>
     <r>
@@ -138,12 +195,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> values shoud be the Employee Number given by CSI.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3.) </t>
+      <t xml:space="preserve"> values shoud be the Employee Number assigned by CSI Interfusion.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.) </t>
     </r>
     <r>
       <rPr>
@@ -153,21 +210,105 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>EmployeeName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be Full Name of the Employee.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4.) </t>
+      <t>NRICPassportNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values shoud be the Employee's NRIC for Malaysians or Passport Number for Foreign Workers.</t>
+    </r>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Descripton</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>GMGR</t>
+  </si>
+  <si>
+    <t>HRA</t>
+  </si>
+  <si>
+    <t>MGR</t>
+  </si>
+  <si>
+    <t>RMGR</t>
+  </si>
+  <si>
+    <t>SCS</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>HR Administrator</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>General Manager</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Regional Manager</t>
+  </si>
+  <si>
+    <t>Senior Consultant</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>DVR</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11.) </t>
     </r>
     <r>
       <rPr>
@@ -177,30 +318,514 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>BusinessEmail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values must be the Chinasoft Email Address.</t>
-    </r>
-  </si>
-  <si>
-    <t>BusinessEmail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.) NRICPassport values should be </t>
+      <t>JobTitle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be in the following list:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be in the following list:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MaritalStatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be in the following list:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DateMarried</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be last Date that the Employee got Married/Divorced.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MarriedCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be the number of times the Employee got Married.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ChildrenCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be number of Children the Employee has.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MobileNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be the Employee's Mobile Number.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BusinessUnit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> should be in the following list:</t>
+    </r>
+  </si>
+  <si>
+    <t>CFIT</t>
+  </si>
+  <si>
+    <t>Corporate Function IT</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>CRBNK</t>
+  </si>
+  <si>
+    <t>Core Banking</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Human Resource</t>
+  </si>
+  <si>
+    <t>PMO</t>
+  </si>
+  <si>
+    <t>Project Management Office</t>
+  </si>
+  <si>
+    <t>SMK</t>
+  </si>
+  <si>
+    <t>Sales and Marketing</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>CARDS</t>
+  </si>
+  <si>
+    <t>GHRS</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DepartmentID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> should be in the following list:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LineManager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> should be the Line Manager's Employee ID.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DottedLineManager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> should be the Dotted Line Manager's Employee ID.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DateJoined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be the Date the Employee joined the Company. It must have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>YYYY-MM-DD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> format as this is the only Date Format compatible with the system. Please do NOT change the format of this Column.</t>
+    </r>
+  </si>
+  <si>
+    <t>DateJoined</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If ever that the format of this Column has changed due to copied data from other cell, you may right click Column </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Q </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(for Date Header), select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Format Cells…, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">then select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Text </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Category</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>in the Format Cells dialog box.</t>
+    </r>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>You may contact the Development Team for further assistance in using this template.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be in the following list:</t>
+    </r>
+  </si>
+  <si>
+    <t>20.) As best practice, always download and use the most updated Upload Template available in the "Upload Employee Profiles" page.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be in the following list:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.) This template contains eighteen (18) required column fields. Column Names or Headers shouldn't be missed or misspelled. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +983,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
       <name val="Arial"/>
@@ -757,31 +1388,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -795,6 +1404,36 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="18" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -813,20 +1452,24 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1149,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1160,197 +1803,636 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="14.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.21875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="2" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>43515</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="D4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="22" t="s">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="18"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="18"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="18"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="18"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="18"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="18"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="18"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="17">
-        <v>43515</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D55" s="19"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="19"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="19"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="19"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="19"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="19"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="19"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="19"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="19"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="18"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" s="18"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="18"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="18"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="18"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" s="18"/>
+    </row>
+    <row r="85" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="18"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
+  <mergeCells count="38">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1359,162 +2441,260 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.88671875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="31" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="31" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="R1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Client_CSILMS/src/templates/EmployeeProfiles.xlsx
+++ b/Client_CSILMS/src/templates/EmployeeProfiles.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -819,6 +819,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.) This template contains eighteen (18) required column fields. Column Names or Headers shouldn't be missed or misspelled. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1425,14 +1428,24 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1452,24 +1465,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1795,7 +1798,7 @@
   <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1840,12 +1843,12 @@
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1857,30 +1860,30 @@
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
@@ -2008,28 +2011,28 @@
       <c r="B25" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="18"/>
+      <c r="D27" s="31"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2040,37 +2043,37 @@
       <c r="B30" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="18"/>
+      <c r="D30" s="31"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="31"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="31"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -2096,82 +2099,82 @@
       <c r="B42" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="31"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="31"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="18"/>
+      <c r="D44" s="31"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="18"/>
+      <c r="D45" s="31"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="18"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="18"/>
+      <c r="D47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="18"/>
+      <c r="D48" s="31"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="18"/>
+      <c r="D49" s="31"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="18"/>
+      <c r="D50" s="31"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -2187,55 +2190,55 @@
       <c r="B55" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="19"/>
+      <c r="D55" s="32"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="20"/>
+      <c r="D56" s="33"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="19"/>
+      <c r="D57" s="32"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="19"/>
+      <c r="D58" s="32"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="19"/>
+      <c r="D59" s="32"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="19"/>
+      <c r="D60" s="32"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2246,46 +2249,46 @@
       <c r="B63" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="19"/>
+      <c r="D63" s="32"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D64" s="33"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D65" s="19"/>
+      <c r="D65" s="32"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="19"/>
+      <c r="D66" s="32"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D67" s="19"/>
+      <c r="D67" s="32"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -2316,28 +2319,28 @@
       <c r="B77" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="18"/>
+      <c r="D77" s="31"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="18"/>
+      <c r="D78" s="31"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D79" s="18"/>
+      <c r="D79" s="31"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -2348,37 +2351,37 @@
       <c r="B82" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="18"/>
+      <c r="D82" s="31"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B83" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D83" s="18"/>
+      <c r="D83" s="31"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D84" s="18"/>
+      <c r="D84" s="31"/>
     </row>
     <row r="85" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D85" s="18"/>
+      <c r="D85" s="31"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -2395,11 +2398,24 @@
     <row r="93" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
@@ -2412,27 +2428,14 @@
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2443,53 +2446,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="31" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" style="31" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.21875" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" style="22" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="18" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2498,203 +2499,203 @@
       <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Client_CSILMS/src/templates/EmployeeProfiles.xlsx
+++ b/Client_CSILMS/src/templates/EmployeeProfiles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -100,6 +100,934 @@
     </r>
   </si>
   <si>
+    <t>BusinessEmail</t>
+  </si>
+  <si>
+    <t>NRICPassportNo</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+  </si>
+  <si>
+    <t>DateMarried</t>
+  </si>
+  <si>
+    <t>MarriedCount</t>
+  </si>
+  <si>
+    <t>ChildrenCount</t>
+  </si>
+  <si>
+    <t>DepartmentID</t>
+  </si>
+  <si>
+    <t>DottedLineManager</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Descripton</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>GMGR</t>
+  </si>
+  <si>
+    <t>HRA</t>
+  </si>
+  <si>
+    <t>MGR</t>
+  </si>
+  <si>
+    <t>RMGR</t>
+  </si>
+  <si>
+    <t>SCS</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>HR Administrator</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>General Manager</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Regional Manager</t>
+  </si>
+  <si>
+    <t>Senior Consultant</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>DVR</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ChildrenCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be number of Children the Employee has.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MobileNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be the Employee's Mobile Number.</t>
+    </r>
+  </si>
+  <si>
+    <t>CFIT</t>
+  </si>
+  <si>
+    <t>Corporate Function IT</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>CRBNK</t>
+  </si>
+  <si>
+    <t>Core Banking</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Human Resource</t>
+  </si>
+  <si>
+    <t>PMO</t>
+  </si>
+  <si>
+    <t>Project Management Office</t>
+  </si>
+  <si>
+    <t>SMK</t>
+  </si>
+  <si>
+    <t>Sales and Marketing</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>CARDS</t>
+  </si>
+  <si>
+    <t>GHRS</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LineManager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> should be the Line Manager's Employee ID.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DottedLineManager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> should be the Dotted Line Manager's Employee ID.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DateJoined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be the Date the Employee joined the Company. It must have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>YYYY-MM-DD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> format as this is the only Date Format compatible with the system. Please do NOT change the format of this Column.</t>
+    </r>
+  </si>
+  <si>
+    <t>DateJoined</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If ever that the format of this Column has changed due to copied data from other cell, you may right click Column </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Q </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(for Date Header), select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Format Cells…, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">then select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Text </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Category</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>in the Format Cells dialog box.</t>
+    </r>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>You may contact the Development Team for further assistance in using this template.</t>
+  </si>
+  <si>
+    <t>20.) As best practice, always download and use the most updated Upload Template available in the "Upload Employee Profiles" page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.) This template contains eighteen (18) required column fields. Column Names or Headers shouldn't be missed or misspelled. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DepartmentID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dept_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BusinessUnit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>business_unit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JobTitle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>job_title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MaritalStatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>marriage_status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be in the following list (updated list can be found in Translate Items page, search for Field Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>gender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <t>EMPLOYEE</t>
+  </si>
+  <si>
+    <t>MANAGER</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If ever that the format of this Column has changed due to copied data from other cell, you may right click Column </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">G </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(for Date Header), select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Format Cells…, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">then select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Text </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Category</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>in the Format Cells dialog box.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DateMarried </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">values should be the Date the Employee joined the Company. It must have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>YYYY-MM-DD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> format as this is the only Date Format compatible with the system. Please do NOT change the format of this Column.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MarriedCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be the number of times the Employee got Married. This field becomes becomes required field when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DateMarried</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> has value.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Employee ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values shoud be the Employee Number assigned by CSI Interfusion. This is a required field and shouldn'y have duplicate value/s.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NRICPassportNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values shoud be the Employee's NRIC for Malaysians or Passport Number for Foreign Workers. This is a required field.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">3.) </t>
     </r>
@@ -120,7 +1048,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> values should be Full Name of the Employee.</t>
+      <t xml:space="preserve"> values should be Full Name of the Employee. This is a required field.</t>
     </r>
   </si>
   <si>
@@ -144,684 +1072,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> values must be the Chinasoft Email Address.</t>
-    </r>
-  </si>
-  <si>
-    <t>BusinessEmail</t>
-  </si>
-  <si>
-    <t>NRICPassportNo</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>MaritalStatus</t>
-  </si>
-  <si>
-    <t>DateMarried</t>
-  </si>
-  <si>
-    <t>MarriedCount</t>
-  </si>
-  <si>
-    <t>ChildrenCount</t>
-  </si>
-  <si>
-    <t>DepartmentID</t>
-  </si>
-  <si>
-    <t>DottedLineManager</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Employee ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values shoud be the Employee Number assigned by CSI Interfusion.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NRICPassportNo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values shoud be the Employee's NRIC for Malaysians or Passport Number for Foreign Workers.</t>
-    </r>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Descripton</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>GMGR</t>
-  </si>
-  <si>
-    <t>HRA</t>
-  </si>
-  <si>
-    <t>MGR</t>
-  </si>
-  <si>
-    <t>RMGR</t>
-  </si>
-  <si>
-    <t>SCS</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>SSE</t>
-  </si>
-  <si>
-    <t>HR Administrator</t>
-  </si>
-  <si>
-    <t>Consultant</t>
-  </si>
-  <si>
-    <t>General Manager</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Regional Manager</t>
-  </si>
-  <si>
-    <t>Senior Consultant</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>Senior Software Engineer</t>
-  </si>
-  <si>
-    <t>SIN</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>DVR</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>Divorced</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">11.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>JobTitle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be in the following list:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gender</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be in the following list:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MaritalStatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be in the following list:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DateMarried</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be last Date that the Employee got Married/Divorced.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MarriedCount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be the number of times the Employee got Married.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ChildrenCount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be number of Children the Employee has.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MobileNo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be the Employee's Mobile Number.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">13.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>BusinessUnit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> should be in the following list:</t>
-    </r>
-  </si>
-  <si>
-    <t>CFIT</t>
-  </si>
-  <si>
-    <t>Corporate Function IT</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>CRBNK</t>
-  </si>
-  <si>
-    <t>Core Banking</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Human Resource</t>
-  </si>
-  <si>
-    <t>PMO</t>
-  </si>
-  <si>
-    <t>Project Management Office</t>
-  </si>
-  <si>
-    <t>SMK</t>
-  </si>
-  <si>
-    <t>Sales and Marketing</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>CARDS</t>
-  </si>
-  <si>
-    <t>GHRS</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>Project Management</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DepartmentID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> should be in the following list:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>LineManager</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> should be the Line Manager's Employee ID.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DottedLineManager</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> should be the Dotted Line Manager's Employee ID.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">17.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DateJoined</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be the Date the Employee joined the Company. It must have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>YYYY-MM-DD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> format as this is the only Date Format compatible with the system. Please do NOT change the format of this Column.</t>
-    </r>
-  </si>
-  <si>
-    <t>DateJoined</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If ever that the format of this Column has changed due to copied data from other cell, you may right click Column </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Q </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(for Date Header), select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Format Cells…, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">then select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Text </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Category</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>in the Format Cells dialog box.</t>
-    </r>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>You may contact the Development Team for further assistance in using this template.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Role</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be in the following list:</t>
-    </r>
-  </si>
-  <si>
-    <t>20.) As best practice, always download and use the most updated Upload Template available in the "Upload Employee Profiles" page.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be in the following list:</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1.) This template contains eighteen (18) required column fields. Column Names or Headers shouldn't be missed or misspelled. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> values must be the Chinasoft Email Address. This is a required field and shouldn'y have duplicate value/s.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1447,6 +1699,15 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1464,15 +1725,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1795,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S93"/>
+  <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1843,12 +2095,12 @@
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1860,30 +2112,30 @@
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
@@ -1915,7 +2167,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1931,25 +2183,25 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="G14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="H14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="I14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="J14" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="K14" s="13" t="s">
         <v>11</v>
@@ -1961,16 +2213,16 @@
         <v>14</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O14" s="13" t="s">
         <v>15</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="R14" s="14" t="s">
         <v>16</v>
@@ -1981,17 +2233,17 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1999,443 +2251,448 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="31"/>
+        <v>32</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="31"/>
+        <v>28</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="25"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="31"/>
+        <v>32</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="31"/>
+        <v>50</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="31"/>
+        <v>51</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="25"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="31"/>
+      <c r="A42" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="31"/>
+      <c r="B43" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="25"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="31"/>
+        <v>34</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="25"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="31"/>
+        <v>35</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="25"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="31"/>
+        <v>36</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="25"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="31"/>
+        <v>37</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="25"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="31"/>
+        <v>38</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="25"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="31"/>
+        <v>39</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="25"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="31"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="25"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="32"/>
+      <c r="A55" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="33"/>
+      <c r="C56" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="26"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="32"/>
+        <v>58</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="27"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" s="32"/>
+        <v>61</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="26"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" s="32"/>
+        <v>63</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="26"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="32"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="26"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="26"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="32"/>
+      <c r="A63" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="33"/>
+        <v>69</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="26"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" s="32"/>
+        <v>70</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="27"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66" s="32"/>
+        <v>71</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="26"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="32"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="26"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="26"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>99</v>
+      <c r="A74" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C77" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D77" s="31"/>
+      <c r="A77" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D78" s="31"/>
+        <v>32</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="25"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D79" s="31"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="25"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" s="25"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C82" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D82" s="31"/>
+      <c r="A82" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B83" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D83" s="31"/>
+        <v>32</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" s="25"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D84" s="31"/>
-    </row>
-    <row r="85" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D84" s="25"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B85" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D85" s="31"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" s="25"/>
+    </row>
+    <row r="86" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" s="25"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A88" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="93" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2446,7 +2703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2473,31 +2732,31 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>11</v>
@@ -2509,16 +2768,16 @@
         <v>14</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N1" s="18" t="s">
         <v>15</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="24" t="s">
         <v>16</v>

--- a/Client_CSILMS/src/templates/EmployeeProfiles.xlsx
+++ b/Client_CSILMS/src/templates/EmployeeProfiles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="114">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -212,6 +212,844 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">12.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MobileNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be the Employee's Mobile Number.</t>
+    </r>
+  </si>
+  <si>
+    <t>CFIT</t>
+  </si>
+  <si>
+    <t>Corporate Function IT</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>CRBNK</t>
+  </si>
+  <si>
+    <t>Core Banking</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Human Resource</t>
+  </si>
+  <si>
+    <t>PMO</t>
+  </si>
+  <si>
+    <t>Project Management Office</t>
+  </si>
+  <si>
+    <t>SMK</t>
+  </si>
+  <si>
+    <t>Sales and Marketing</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>CARDS</t>
+  </si>
+  <si>
+    <t>GHRS</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LineManager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> should be the Line Manager's Employee ID.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DottedLineManager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> should be the Dotted Line Manager's Employee ID.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DateJoined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be the Date the Employee joined the Company. It must have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>YYYY-MM-DD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> format as this is the only Date Format compatible with the system. Please do NOT change the format of this Column.</t>
+    </r>
+  </si>
+  <si>
+    <t>DateJoined</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If ever that the format of this Column has changed due to copied data from other cell, you may right click Column </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Q </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(for Date Header), select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Format Cells…, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">then select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Text </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Category</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>in the Format Cells dialog box.</t>
+    </r>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>You may contact the Development Team for further assistance in using this template.</t>
+  </si>
+  <si>
+    <t>20.) As best practice, always download and use the most updated Upload Template available in the "Upload Employee Profiles" page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.) This template contains eighteen (18) required column fields. Column Names or Headers shouldn't be missed or misspelled. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DepartmentID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dept_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BusinessUnit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>business_unit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JobTitle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>job_title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MaritalStatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>marriage_status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be in the following list (updated list can be found in Translate Items page, search for Field Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>gender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <t>EMPLOYEE</t>
+  </si>
+  <si>
+    <t>MANAGER</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If ever that the format of this Column has changed due to copied data from other cell, you may right click Column </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">G </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(for Date Header), select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Format Cells…, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">then select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Text </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Category</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>in the Format Cells dialog box.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DateMarried </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">values should be the Date the Employee joined the Company. It must have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>YYYY-MM-DD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> format as this is the only Date Format compatible with the system. Please do NOT change the format of this Column.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Employee ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values shoud be the Employee Number assigned by CSI Interfusion. This is a required field and shouldn'y have duplicate value/s.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NRICPassportNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values shoud be the Employee's NRIC for Malaysians or Passport Number for Foreign Workers. This is a required field.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EmployeeName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be Full Name of the Employee. This is a required field.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BusinessEmail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values must be the Chinasoft Email Address. This is a required field and shouldn'y have duplicate value/s.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MarriedCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be the number of times the Employee got Married. This field becomes required field when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DateMarried</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> has value. Default value should be zero (0).</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">10.) </t>
     </r>
     <r>
@@ -231,856 +1069,54 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> values should be number of Children the Employee has.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MobileNo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be the Employee's Mobile Number.</t>
-    </r>
-  </si>
-  <si>
-    <t>CFIT</t>
-  </si>
-  <si>
-    <t>Corporate Function IT</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>CRBNK</t>
-  </si>
-  <si>
-    <t>Core Banking</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Human Resource</t>
-  </si>
-  <si>
-    <t>PMO</t>
-  </si>
-  <si>
-    <t>Project Management Office</t>
-  </si>
-  <si>
-    <t>SMK</t>
-  </si>
-  <si>
-    <t>Sales and Marketing</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>CARDS</t>
-  </si>
-  <si>
-    <t>GHRS</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>Project Management</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>LineManager</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> should be the Line Manager's Employee ID.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DottedLineManager</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> should be the Dotted Line Manager's Employee ID.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">17.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DateJoined</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be the Date the Employee joined the Company. It must have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>YYYY-MM-DD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> format as this is the only Date Format compatible with the system. Please do NOT change the format of this Column.</t>
-    </r>
-  </si>
-  <si>
-    <t>DateJoined</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If ever that the format of this Column has changed due to copied data from other cell, you may right click Column </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Q </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(for Date Header), select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Format Cells…, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">then select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Text </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Category</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>in the Format Cells dialog box.</t>
-    </r>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>You may contact the Development Team for further assistance in using this template.</t>
-  </si>
-  <si>
-    <t>20.) As best practice, always download and use the most updated Upload Template available in the "Upload Employee Profiles" page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.) This template contains eighteen (18) required column fields. Column Names or Headers shouldn't be missed or misspelled. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DepartmentID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>dept_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">13.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>BusinessUnit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>business_unit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">11.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>JobTitle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>job_title</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MaritalStatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>marriage_status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gender</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be in the following list (updated list can be found in Translate Items page, search for Field Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gender</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Role</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Role</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
-    <t>EMPLOYEE</t>
-  </si>
-  <si>
-    <t>MANAGER</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If ever that the format of this Column has changed due to copied data from other cell, you may right click Column </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">G </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(for Date Header), select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Format Cells…, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">then select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Text </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Category</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>in the Format Cells dialog box.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">DateMarried </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">values should be the Date the Employee joined the Company. It must have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>YYYY-MM-DD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> format as this is the only Date Format compatible with the system. Please do NOT change the format of this Column.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MarriedCount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be the number of times the Employee got Married. This field becomes becomes required field when </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DateMarried</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> has value.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Employee ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values shoud be the Employee Number assigned by CSI Interfusion. This is a required field and shouldn'y have duplicate value/s.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NRICPassportNo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values shoud be the Employee's NRIC for Malaysians or Passport Number for Foreign Workers. This is a required field.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>EmployeeName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be Full Name of the Employee. This is a required field.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>BusinessEmail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values must be the Chinasoft Email Address. This is a required field and shouldn'y have duplicate value/s.</t>
-    </r>
+      <t xml:space="preserve"> values should be number of Children the Employee has. Default value should be zero (0).</t>
+    </r>
+  </si>
+  <si>
+    <t>T1828374J</t>
+  </si>
+  <si>
+    <t>E000000021</t>
+  </si>
+  <si>
+    <t>2018-12-15</t>
+  </si>
+  <si>
+    <t>T1828374K</t>
+  </si>
+  <si>
+    <t>2018-12-16</t>
+  </si>
+  <si>
+    <t>E900000002</t>
+  </si>
+  <si>
+    <t>E900000001</t>
+  </si>
+  <si>
+    <t>Jackie Chan</t>
+  </si>
+  <si>
+    <t>Sheena Easton</t>
+  </si>
+  <si>
+    <t>jackie.chan@chinasofti.com</t>
+  </si>
+  <si>
+    <t>sheena.easton@chinasofti.com</t>
+  </si>
+  <si>
+    <t>2001-09-03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="000\-0000000"/>
+  </numFmts>
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1248,6 +1284,14 @@
       <color rgb="FF002060"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1599,7 +1643,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1642,17 +1686,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1726,8 +1764,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1761,6 +1812,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2049,9 +2101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2078,82 +2128,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>43515</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2167,7 +2217,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2176,478 +2226,478 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="M14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="N14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="P14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="R14" s="14" t="s">
+      <c r="Q14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S14" s="14" t="s">
+      <c r="S14" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="15"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="25"/>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="25"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="25"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="25"/>
+      <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="25"/>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="25"/>
+      <c r="D45" s="22"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="25"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="25"/>
+      <c r="D47" s="22"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="25"/>
+      <c r="D48" s="22"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="25"/>
+      <c r="D49" s="22"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="25"/>
+      <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="25"/>
+      <c r="D51" s="22"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="26" t="s">
+      <c r="B56" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="26"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="27"/>
+      <c r="D57" s="24"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="D58" s="23"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="26"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="17" t="s">
+      <c r="C59" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="D59" s="23"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="26"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="17" t="s">
+      <c r="C60" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="D60" s="23"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="26"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="17" t="s">
+      <c r="C61" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D61" s="26"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="23"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="26"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="17" t="s">
+      <c r="C65" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="24"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C66" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="27"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="17" t="s">
+      <c r="D66" s="23"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="23"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="26"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" s="26"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="17" t="s">
+      <c r="C68" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" s="26"/>
+      <c r="D68" s="23"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="25"/>
+      <c r="D78" s="22"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="22"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D79" s="25"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="16" t="s">
+      <c r="C80" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D80" s="25"/>
+      <c r="D80" s="22"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" s="22"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" s="22"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" s="22"/>
+    </row>
+    <row r="86" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="22" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" s="25"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D84" s="25"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D85" s="25"/>
-    </row>
-    <row r="86" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C86" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D86" s="25"/>
+      <c r="D86" s="22"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2703,261 +2753,341 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" style="22" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.21875" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" style="19" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
+    <row r="2" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="33">
+        <v>1</v>
+      </c>
+      <c r="I2" s="33">
+        <v>2</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="32">
+        <v>182831344</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="33">
+        <v>0</v>
+      </c>
+      <c r="I3" s="33">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="32">
+        <v>182831342</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Client_CSILMS/src/templates/EmployeeProfiles.xlsx
+++ b/Client_CSILMS/src/templates/EmployeeProfiles.xlsx
@@ -16,11 +16,12 @@
     <sheet name="Profiles" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="121">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -211,6 +212,626 @@
     <t>Divorced</t>
   </si>
   <si>
+    <t>CFIT</t>
+  </si>
+  <si>
+    <t>Corporate Function IT</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>CRBNK</t>
+  </si>
+  <si>
+    <t>Core Banking</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Human Resource</t>
+  </si>
+  <si>
+    <t>PMO</t>
+  </si>
+  <si>
+    <t>Project Management Office</t>
+  </si>
+  <si>
+    <t>SMK</t>
+  </si>
+  <si>
+    <t>Sales and Marketing</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>CARDS</t>
+  </si>
+  <si>
+    <t>GHRS</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LineManager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> should be the Line Manager's Employee ID.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DottedLineManager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> should be the Dotted Line Manager's Employee ID.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DateJoined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be the Date the Employee joined the Company. It must have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>YYYY-MM-DD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> format as this is the only Date Format compatible with the system. Please do NOT change the format of this Column.</t>
+    </r>
+  </si>
+  <si>
+    <t>DateJoined</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>You may contact the Development Team for further assistance in using this template.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.) This template contains eighteen (18) required column fields. Column Names or Headers shouldn't be missed or misspelled. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DepartmentID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dept_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BusinessUnit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>business_unit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JobTitle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>job_title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MaritalStatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>marriage_status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be in the following list (updated list can be found in Translate Items page, search for Field Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>gender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DateMarried </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">values should be the Date the Employee joined the Company. It must have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>YYYY-MM-DD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> format as this is the only Date Format compatible with the system. Please do NOT change the format of this Column.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Employee ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values shoud be the Employee Number assigned by CSI Interfusion. This is a required field and shouldn'y have duplicate value/s.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NRICPassportNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values shoud be the Employee's NRIC for Malaysians or Passport Number for Foreign Workers. This is a required field.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EmployeeName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be Full Name of the Employee. This is a required field.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BusinessEmail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values must be the Chinasoft Email Address. This is a required field and shouldn'y have duplicate value/s.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MarriedCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be the number of times the Employee got Married. This field becomes required field when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DateMarried</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> has value. Default value should be zero (0).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ChildrenCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> values should be number of Children the Employee has. Default value should be zero (0).</t>
+    </r>
+  </si>
+  <si>
+    <t>T1828374J</t>
+  </si>
+  <si>
+    <t>E000000021</t>
+  </si>
+  <si>
+    <t>2018-12-15</t>
+  </si>
+  <si>
+    <t>T1828374K</t>
+  </si>
+  <si>
+    <t>2018-12-16</t>
+  </si>
+  <si>
+    <t>E900000002</t>
+  </si>
+  <si>
+    <t>E900000001</t>
+  </si>
+  <si>
+    <t>Jackie Chan</t>
+  </si>
+  <si>
+    <t>Sheena Easton</t>
+  </si>
+  <si>
+    <t>jackie.chan@chinasofti.com</t>
+  </si>
+  <si>
+    <t>sheena.easton@chinasofti.com</t>
+  </si>
+  <si>
+    <t>2001-09-03</t>
+  </si>
+  <si>
+    <t>018-2831344</t>
+  </si>
+  <si>
+    <t>018-2831342</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">12.) </t>
     </r>
@@ -231,108 +852,31 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> values should be the Employee's Mobile Number.</t>
-    </r>
-  </si>
-  <si>
-    <t>CFIT</t>
-  </si>
-  <si>
-    <t>Corporate Function IT</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>CRBNK</t>
-  </si>
-  <si>
-    <t>Core Banking</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Human Resource</t>
-  </si>
-  <si>
-    <t>PMO</t>
-  </si>
-  <si>
-    <t>Project Management Office</t>
-  </si>
-  <si>
-    <t>SMK</t>
-  </si>
-  <si>
-    <t>Sales and Marketing</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>CARDS</t>
-  </si>
-  <si>
-    <t>GHRS</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>Project Management</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>LineManager</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> should be the Line Manager's Employee ID.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DottedLineManager</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> should be the Dotted Line Manager's Employee ID.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">17.) </t>
+      <t xml:space="preserve"> values should be the Employee's Mobile Number. Column is in Text format.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If ever that the format of this Column has changed due to copied data from other cell, you may right click Column </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Q </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(for </t>
     </r>
     <r>
       <rPr>
@@ -351,30 +895,65 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> values should be the Date the Employee joined the Company. It must have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>YYYY-MM-DD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> format as this is the only Date Format compatible with the system. Please do NOT change the format of this Column.</t>
-    </r>
-  </si>
-  <si>
-    <t>DateJoined</t>
+      <t xml:space="preserve"> Header), select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Format Cells…, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">then select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Text </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Category</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>in the Format Cells dialog box.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -388,16 +967,78 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Q </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(for Date Header), select </t>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MobileNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Header), select Format Cells…, then select Text Category in the Format Cells dialog box.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If ever that the format of this Column has changed due to copied data from other cell, you may right click Column </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">G </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DateMarried</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Header), select </t>
     </r>
     <r>
       <rPr>
@@ -458,242 +1099,6 @@
     </r>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>You may contact the Development Team for further assistance in using this template.</t>
-  </si>
-  <si>
-    <t>20.) As best practice, always download and use the most updated Upload Template available in the "Upload Employee Profiles" page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.) This template contains eighteen (18) required column fields. Column Names or Headers shouldn't be missed or misspelled. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DepartmentID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>dept_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">13.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>BusinessUnit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>business_unit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">11.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>JobTitle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>job_title</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MaritalStatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>marriage_status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gender</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be in the following list (updated list can be found in Translate Items page, search for Field Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gender</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">18.) </t>
     </r>
@@ -714,27 +1119,38 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> values should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>):</t>
-    </r>
+      <t xml:space="preserve"> values should be in the following list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>21.) As best practice, always download and use the most updated Upload Template available in the "Upload Employee Profiles" page.</t>
+  </si>
+  <si>
+    <t>Manager?</t>
+  </si>
+  <si>
+    <t>Admin?</t>
   </si>
   <si>
     <r>
@@ -748,375 +1164,88 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Role</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be in the following list  (updated list can be found in Translate Items page, search for Field Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Role</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
-    <t>EMPLOYEE</t>
-  </si>
-  <si>
-    <t>MANAGER</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If ever that the format of this Column has changed due to copied data from other cell, you may right click Column </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">G </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(for Date Header), select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Format Cells…, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">then select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Text </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Category</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>in the Format Cells dialog box.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">DateMarried </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">values should be the Date the Employee joined the Company. It must have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>YYYY-MM-DD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> format as this is the only Date Format compatible with the system. Please do NOT change the format of this Column.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Employee ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values shoud be the Employee Number assigned by CSI Interfusion. This is a required field and shouldn'y have duplicate value/s.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NRICPassportNo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values shoud be the Employee's NRIC for Malaysians or Passport Number for Foreign Workers. This is a required field.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>EmployeeName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be Full Name of the Employee. This is a required field.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>BusinessEmail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values must be the Chinasoft Email Address. This is a required field and shouldn'y have duplicate value/s.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MarriedCount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be the number of times the Employee got Married. This field becomes required field when </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DateMarried</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> has value. Default value should be zero (0).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10.) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ChildrenCount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> values should be number of Children the Employee has. Default value should be zero (0).</t>
-    </r>
-  </si>
-  <si>
-    <t>T1828374J</t>
-  </si>
-  <si>
-    <t>E000000021</t>
-  </si>
-  <si>
-    <t>2018-12-15</t>
-  </si>
-  <si>
-    <t>T1828374K</t>
-  </si>
-  <si>
-    <t>2018-12-16</t>
-  </si>
-  <si>
-    <t>E900000002</t>
-  </si>
-  <si>
-    <t>E900000001</t>
-  </si>
-  <si>
-    <t>Jackie Chan</t>
-  </si>
-  <si>
-    <t>Sheena Easton</t>
-  </si>
-  <si>
-    <t>jackie.chan@chinasofti.com</t>
-  </si>
-  <si>
-    <t>sheena.easton@chinasofti.com</t>
-  </si>
-  <si>
-    <t>2001-09-03</t>
+      <t>Manager?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Column is for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Manager Role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, values should be in the following list:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Admin?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Column is for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Administrator Role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, values should be in the following list:</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="000\-0000000"/>
-  </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1292,6 +1421,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1688,7 +1825,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1718,12 +1855,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1734,9 +1865,29 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1764,19 +1915,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2099,9 +2237,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S94"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86:D86"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2145,12 +2285,12 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2162,30 +2302,30 @@
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -2217,7 +2357,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2272,7 +2412,7 @@
         <v>27</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R14" s="11" t="s">
         <v>16</v>
@@ -2283,17 +2423,17 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2301,410 +2441,443 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="28"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="22"/>
+      <c r="D30" s="28"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="22"/>
+      <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="22"/>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="22"/>
+      <c r="D33" s="28"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="22"/>
+      <c r="D43" s="28"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="22"/>
+      <c r="D44" s="28"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="22"/>
+      <c r="D45" s="28"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="22"/>
+      <c r="D46" s="28"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="22"/>
+      <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="22"/>
+      <c r="D48" s="28"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="22"/>
+      <c r="D49" s="28"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="22"/>
+      <c r="D50" s="28"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="22"/>
+      <c r="D51" s="28"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="23"/>
+      <c r="A56" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57" s="24"/>
+        <v>67</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="29"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="23"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="30"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="23"/>
+        <v>59</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="23"/>
+        <v>61</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="29"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="29"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" s="23"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="D62" s="29"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="23"/>
+      <c r="A64" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" s="24"/>
+        <v>67</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="29"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="23"/>
+        <v>68</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="30"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" s="23"/>
+        <v>69</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="29"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="29"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="D69" s="29"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D68" s="23"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>90</v>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" s="22"/>
+      <c r="A78" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D79" s="22"/>
+        <v>32</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="28"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D80" s="22"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" s="28"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" s="28"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" s="22"/>
+      <c r="A83" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D84" s="22"/>
+        <v>32</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="28"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B85" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D85" s="22"/>
-    </row>
-    <row r="86" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" s="28"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B86" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D86" s="22"/>
+        <v>113</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" s="28"/>
+    </row>
+    <row r="87" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="22"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B89" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="28"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D90" s="28"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" s="28"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="40">
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D5:G5"/>
@@ -2725,24 +2898,26 @@
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C56:D56"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C62:D62"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2751,336 +2926,346 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.88671875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="20">
+        <v>1</v>
+      </c>
+      <c r="I2" s="20">
+        <v>2</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="33">
-        <v>1</v>
-      </c>
-      <c r="I2" s="33">
-        <v>2</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="32">
-        <v>182831344</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="17" t="s">
+      <c r="S2" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="O2" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="33">
+      <c r="G3" s="15"/>
+      <c r="H3" s="20">
         <v>0</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="20">
         <v>0</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="32">
-        <v>182831342</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="P3" s="19" t="s">
+      <c r="K3" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="Q3" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="L3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Client_CSILMS/src/templates/EmployeeProfiles.xlsx
+++ b/Client_CSILMS/src/templates/EmployeeProfiles.xlsx
@@ -5,23 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\csileavemanagementsystem\Client_CSILMS\src\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Junnel Teves\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="2" r:id="rId1"/>
     <sheet name="Profiles" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="122">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -74,9 +73,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Role</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Following below are the Column Names/Headers. Please verify that all of these are present in the </t>
     </r>
@@ -366,9 +362,6 @@
     <t>You may contact the Development Team for further assistance in using this template.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.) This template contains eighteen (18) required column fields. Column Names or Headers shouldn't be missed or misspelled. </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">14.) </t>
     </r>
@@ -790,39 +783,15 @@
     </r>
   </si>
   <si>
-    <t>T1828374J</t>
-  </si>
-  <si>
     <t>E000000021</t>
   </si>
   <si>
     <t>2018-12-15</t>
   </si>
   <si>
-    <t>T1828374K</t>
-  </si>
-  <si>
     <t>2018-12-16</t>
   </si>
   <si>
-    <t>E900000002</t>
-  </si>
-  <si>
-    <t>E900000001</t>
-  </si>
-  <si>
-    <t>Jackie Chan</t>
-  </si>
-  <si>
-    <t>Sheena Easton</t>
-  </si>
-  <si>
-    <t>jackie.chan@chinasofti.com</t>
-  </si>
-  <si>
-    <t>sheena.easton@chinasofti.com</t>
-  </si>
-  <si>
     <t>2001-09-03</t>
   </si>
   <si>
@@ -1147,10 +1116,43 @@
     <t>21.) As best practice, always download and use the most updated Upload Template available in the "Upload Employee Profiles" page.</t>
   </si>
   <si>
-    <t>Manager?</t>
-  </si>
-  <si>
-    <t>Admin?</t>
+    <t>isManager</t>
+  </si>
+  <si>
+    <t>isAdmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.) This template contains nineteen (19) required column fields. Column Names or Headers shouldn't be missed or misspelled. </t>
+  </si>
+  <si>
+    <t>E9XX000001</t>
+  </si>
+  <si>
+    <t>E9XX000002</t>
+  </si>
+  <si>
+    <t>Fred Mercury</t>
+  </si>
+  <si>
+    <t>fred.mercury@chinasofti.com</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>charlie.brown@chinasofti.com</t>
+  </si>
+  <si>
+    <t>T1828374L</t>
+  </si>
+  <si>
+    <t>T1828374M</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Removed Role column, then added isManager and isAdmin columns.</t>
   </si>
   <si>
     <r>
@@ -1164,16 +1166,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Manager?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Column is for </t>
+      <t>isManager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Column is to determine if the new Employee will be given </t>
     </r>
     <r>
       <rPr>
@@ -1193,7 +1195,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, values should be in the following list:</t>
+      <t>. Values should be in the following list:</t>
     </r>
   </si>
   <si>
@@ -1208,16 +1210,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Admin?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Column is for </t>
+      <t>isAdmin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Column is to determine if the new Employee will be given </t>
     </r>
     <r>
       <rPr>
@@ -1237,7 +1239,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, values should be in the following list:</t>
+      <t>. Values should be in the following list:</t>
     </r>
   </si>
 </sst>
@@ -1612,7 +1614,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1742,43 +1744,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1825,7 +1790,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1897,22 +1862,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2237,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S99"/>
+  <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86:D86"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2263,19 +2216,20 @@
     <col min="16" max="16" width="20.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="1"/>
+    <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2285,14 +2239,16 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -2302,32 +2258,46 @@
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="6">
+        <v>43543</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>119</v>
+      </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="31"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2336,7 +2306,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2345,27 +2315,27 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
@@ -2373,25 +2343,25 @@
         <v>12</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="I14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="J14" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>11</v>
@@ -2403,37 +2373,40 @@
         <v>14</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R14" s="11" t="s">
         <v>16</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2441,206 +2414,206 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="28" t="s">
         <v>32</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>33</v>
       </c>
       <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>29</v>
       </c>
       <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="28" t="s">
         <v>30</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>31</v>
       </c>
       <c r="D27" s="28"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="28" t="s">
         <v>32</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>33</v>
       </c>
       <c r="D30" s="28"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="28"/>
     </row>
     <row r="33" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="28"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="28" t="s">
         <v>32</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>33</v>
       </c>
       <c r="D43" s="28"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="28"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="28"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" s="28"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="28"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="28"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="28"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="28"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="29" t="s">
         <v>2</v>
@@ -2649,57 +2622,57 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="30" t="s">
         <v>56</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>57</v>
       </c>
       <c r="D58" s="30"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>59</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>60</v>
       </c>
       <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>61</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>62</v>
       </c>
       <c r="D60" s="29"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="29" t="s">
         <v>63</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>64</v>
       </c>
       <c r="D61" s="29"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>65</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>66</v>
       </c>
       <c r="D62" s="29"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="29" t="s">
         <v>2</v>
@@ -2708,121 +2681,121 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D66" s="30"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67" s="29"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="29" t="s">
         <v>61</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>62</v>
       </c>
       <c r="D68" s="29"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="29" t="s">
         <v>70</v>
-      </c>
-      <c r="C69" s="29" t="s">
-        <v>71</v>
       </c>
       <c r="D69" s="29"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="28" t="s">
         <v>32</v>
-      </c>
-      <c r="C79" s="28" t="s">
-        <v>33</v>
       </c>
       <c r="D79" s="28"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D80" s="28"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="28" t="s">
         <v>77</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>78</v>
       </c>
       <c r="D81" s="28"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="28" t="s">
         <v>32</v>
-      </c>
-      <c r="C84" s="28" t="s">
-        <v>33</v>
       </c>
       <c r="D84" s="28"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B85" s="13" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D85" s="28"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B86" s="13" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D86" s="28"/>
     </row>
@@ -2833,44 +2806,44 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B89" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" s="28" t="s">
         <v>32</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>33</v>
       </c>
       <c r="D89" s="28"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B90" s="13" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D90" s="28"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B91" s="13" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D91" s="28"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2878,14 +2851,14 @@
     <row r="99" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D3:I3"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
@@ -2928,15 +2901,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.88671875" style="17" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="18" customWidth="1"/>
     <col min="4" max="4" width="18.109375" style="17" customWidth="1"/>
     <col min="5" max="5" width="8.21875" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
@@ -2951,8 +2924,8 @@
     <col min="15" max="15" width="20.21875" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" style="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="17" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -2964,25 +2937,25 @@
         <v>12</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>25</v>
       </c>
       <c r="J1" s="24" t="s">
         <v>11</v>
@@ -2994,48 +2967,48 @@
         <v>14</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="27" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="27" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H2" s="20">
         <v>1</v>
@@ -3044,54 +3017,54 @@
         <v>2</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="20">
@@ -3101,34 +3074,34 @@
         <v>0</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
